--- a/rpabasic/excel/range_delete.xlsx
+++ b/rpabasic/excel/range_delete.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,87 +435,85 @@
     </row>
     <row r="2">
       <c r="D2" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2" t="n">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="D3" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="D4" t="n">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E4" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="D5" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E5" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" t="n">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="E6" t="n">
-        <v>87</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8"/>
     <row r="9"/>
     <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
+    <row r="11">
+      <c r="D11" t="n">
+        <v>12</v>
+      </c>
+      <c r="E11" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" t="n">
+        <v>40</v>
+      </c>
+      <c r="E12" t="n">
+        <v>51</v>
+      </c>
+    </row>
     <row r="13">
       <c r="D13" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="E13" t="n">
-        <v>90</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="D14" t="n">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="D15" t="n">
-        <v>9</v>
-      </c>
-      <c r="E15" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="D16" t="n">
-        <v>19</v>
-      </c>
-      <c r="E16" t="n">
-        <v>71</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
